--- a/data/wf7333_activity_20230101_1231_2.xlsx
+++ b/data/wf7333_activity_20230101_1231_2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbnostix\Documents\Accounting\2023\wf7333\transactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BA5BE-41A4-470E-879C-65764BC3CF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F0618-254A-4496-B819-7A8AF4726A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="345" windowWidth="24525" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wf7333_activity_20230101_1231" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="211">
   <si>
     <t>*</t>
   </si>
@@ -658,6 +657,15 @@
   </si>
   <si>
     <t>MOBILE DEPOSIT : Travelers</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,45 +1543,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B1" s="2">
-        <v>-816.86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45281</v>
+        <v>45288</v>
       </c>
       <c r="B2" s="2">
-        <v>-507.92</v>
+        <v>-816.86</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B3" s="2">
-        <v>-3648.8</v>
+        <v>-507.92</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,13 +1586,13 @@
         <v>45279</v>
       </c>
       <c r="B4" s="2">
-        <v>-208.27</v>
+        <v>-3648.8</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,139 +1600,139 @@
         <v>45279</v>
       </c>
       <c r="B5" s="2">
-        <v>-83.99</v>
+        <v>-208.27</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45273</v>
+        <v>45279</v>
       </c>
       <c r="B6" s="2">
-        <v>-803.18</v>
+        <v>-83.99</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B7" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-803.18</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B8" s="2">
-        <v>3.84</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45258</v>
+        <v>45271</v>
       </c>
       <c r="B9" s="2">
-        <v>-961.29</v>
+        <v>3.84</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B10" s="2">
-        <v>-18.12</v>
+        <v>-961.29</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B11" s="2">
-        <v>-208.1</v>
+        <v>-18.12</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B12" s="2">
-        <v>-79.989999999999995</v>
+        <v>-208.1</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B13" s="2">
-        <v>-791.79</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45243</v>
+        <v>45247</v>
       </c>
       <c r="B14" s="2">
-        <v>-579.34</v>
+        <v>-791.79</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,13 +1740,13 @@
         <v>45243</v>
       </c>
       <c r="B15" s="2">
-        <v>-504.11</v>
+        <v>-579.34</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,13 +1754,13 @@
         <v>45243</v>
       </c>
       <c r="B16" s="2">
-        <v>-575</v>
+        <v>-504.11</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1763,27 +1768,27 @@
         <v>45243</v>
       </c>
       <c r="B17" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-575</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B18" s="2">
-        <v>-3330</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,41 +1796,41 @@
         <v>45240</v>
       </c>
       <c r="B19" s="2">
-        <v>-1000</v>
+        <v>-3330</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B20" s="2">
-        <v>0.02</v>
+        <v>-1000</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B21" s="2">
-        <v>-1000</v>
+        <v>0.02</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,32 +1838,32 @@
         <v>45236</v>
       </c>
       <c r="B22" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B23" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B24" s="2">
         <v>-100</v>
@@ -1867,108 +1872,108 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B25" s="2">
-        <v>-963.76</v>
+        <v>-100</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45225</v>
+        <v>45229</v>
       </c>
       <c r="B26" s="2">
-        <v>-38</v>
+        <v>-963.76</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>5959</v>
-      </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B27" s="2">
-        <v>-137.74</v>
+        <v>-38</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>5959</v>
+      </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B28" s="2">
-        <v>18723.12</v>
+        <v>-137.74</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B29" s="2">
-        <v>-208.3</v>
+        <v>18723.12</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B30" s="2">
-        <v>-79.989999999999995</v>
+        <v>-208.3</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B31" s="2">
-        <v>-890.02</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,60 +1981,60 @@
         <v>45216</v>
       </c>
       <c r="B32" s="2">
-        <v>-23.06</v>
+        <v>-890.02</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B33" s="2">
-        <v>-1099.78</v>
+        <v>-23.06</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B34" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-1099.78</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B35" s="2">
-        <v>-1000</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="B36" s="2">
         <v>-1000</v>
@@ -2038,35 +2043,35 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B37" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45202</v>
+        <v>45204</v>
       </c>
       <c r="B38" s="2">
-        <v>-564.6</v>
+        <v>-500</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,18 +2079,18 @@
         <v>45202</v>
       </c>
       <c r="B39" s="2">
-        <v>-100</v>
+        <v>-564.6</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B40" s="2">
         <v>-100</v>
@@ -2094,35 +2099,35 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="B41" s="2">
-        <v>-473.49</v>
+        <v>-100</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="B42" s="2">
-        <v>-943.52</v>
+        <v>-473.49</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,44 +2135,44 @@
         <v>45190</v>
       </c>
       <c r="B43" s="2">
-        <v>18723.12</v>
+        <v>-943.52</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B44" s="2">
-        <v>-1000</v>
+        <v>18723.12</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>5965</v>
-      </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B45" s="2">
-        <v>-2006.02</v>
+        <v>-1000</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
+      <c r="D45">
+        <v>5965</v>
+      </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,13 +2180,13 @@
         <v>45188</v>
       </c>
       <c r="B46" s="2">
-        <v>-575</v>
+        <v>-2006.02</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,13 +2194,13 @@
         <v>45188</v>
       </c>
       <c r="B47" s="2">
-        <v>-207.9</v>
+        <v>-575</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,41 +2208,41 @@
         <v>45188</v>
       </c>
       <c r="B48" s="2">
-        <v>-79.989999999999995</v>
+        <v>-207.9</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B49" s="2">
-        <v>-23.06</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="B50" s="2">
-        <v>-3330</v>
+        <v>-23.06</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,55 +2250,55 @@
         <v>45183</v>
       </c>
       <c r="B51" s="2">
-        <v>-47.26</v>
+        <v>-3330</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B52" s="2">
-        <v>-214.73</v>
+        <v>-47.26</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B53" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-214.73</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B54" s="2">
-        <v>-5069.97</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,18 +2306,18 @@
         <v>45180</v>
       </c>
       <c r="B55" s="2">
-        <v>-1000</v>
+        <v>-5069.97</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45175</v>
+        <v>45180</v>
       </c>
       <c r="B56" s="2">
         <v>-1000</v>
@@ -2321,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B57" s="2">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,13 +2348,13 @@
         <v>45174</v>
       </c>
       <c r="B58" s="2">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,13 +2362,13 @@
         <v>45174</v>
       </c>
       <c r="B59" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45167</v>
+        <v>45174</v>
       </c>
       <c r="B61" s="2">
-        <v>-1550</v>
+        <v>-100</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,13 +2404,13 @@
         <v>45167</v>
       </c>
       <c r="B62" s="2">
-        <v>-0.21</v>
+        <v>-1550</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,27 +2418,27 @@
         <v>45167</v>
       </c>
       <c r="B63" s="2">
-        <v>0.21</v>
+        <v>-0.21</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="B64" s="2">
-        <v>-424.68</v>
+        <v>0.21</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,58 +2446,58 @@
         <v>45166</v>
       </c>
       <c r="B65" s="2">
-        <v>150</v>
+        <v>-424.68</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B66" s="2">
-        <v>20925.84</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B67" s="2">
-        <v>-40000</v>
+        <v>20925.84</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>5957</v>
-      </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="B68" s="2">
-        <v>-530.61</v>
+        <v>-40000</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
+      <c r="D68">
+        <v>5957</v>
+      </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,27 +2505,27 @@
         <v>45160</v>
       </c>
       <c r="B69" s="2">
-        <v>-33.799999999999997</v>
+        <v>-530.61</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B70" s="2">
-        <v>-787.13</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2528,13 +2533,13 @@
         <v>45159</v>
       </c>
       <c r="B71" s="2">
-        <v>-207.58</v>
+        <v>-787.13</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2542,13 +2547,13 @@
         <v>45159</v>
       </c>
       <c r="B72" s="2">
-        <v>-1715.62</v>
+        <v>-207.58</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,41 +2561,41 @@
         <v>45159</v>
       </c>
       <c r="B73" s="2">
-        <v>-25</v>
+        <v>-1715.62</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="B74" s="2">
-        <v>-79.989999999999995</v>
+        <v>-25</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>-1599.54</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,114 +2603,114 @@
         <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>-23.06</v>
+        <v>-1599.54</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45153</v>
+        <v>45155</v>
       </c>
       <c r="B77" s="2">
-        <v>-500</v>
+        <v>-23.06</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>5958</v>
-      </c>
       <c r="E77" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B78" s="2">
-        <v>-1042.95</v>
+        <v>-500</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
+      <c r="D78">
+        <v>5958</v>
+      </c>
       <c r="E78" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="B79" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-1042.95</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B80" s="2">
-        <v>-1000</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B81" s="2">
-        <v>-575</v>
+        <v>-1000</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B82" s="2">
-        <v>-3330</v>
+        <v>-575</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B83" s="2">
-        <v>-1000</v>
+        <v>-3330</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2713,32 +2718,32 @@
         <v>45145</v>
       </c>
       <c r="B84" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B85" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B86" s="2">
         <v>-100</v>
@@ -2747,66 +2752,63 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45135</v>
+        <v>45140</v>
       </c>
       <c r="B87" s="2">
-        <v>-1662.07</v>
+        <v>-100</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="B88" s="2">
-        <v>20237.490000000002</v>
+        <v>-1662.07</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B89" s="2">
-        <v>-18.36</v>
+        <v>20237.490000000002</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45126</v>
+        <v>45131</v>
       </c>
       <c r="B90" s="2">
-        <v>-35.75</v>
+        <v>-18.36</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
-      <c r="D90">
-        <v>5956</v>
-      </c>
       <c r="E90" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,27 +2816,30 @@
         <v>45126</v>
       </c>
       <c r="B91" s="2">
-        <v>-207.58</v>
+        <v>-35.75</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
+      <c r="D91">
+        <v>5956</v>
+      </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B92" s="2">
-        <v>-1114.3699999999999</v>
+        <v>-207.58</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2842,30 +2847,27 @@
         <v>45125</v>
       </c>
       <c r="B93" s="2">
-        <v>-79.989999999999995</v>
+        <v>-1114.3699999999999</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B94" s="2">
-        <v>-99.93</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
-      <c r="D94">
-        <v>5955</v>
-      </c>
       <c r="E94" t="s">
-        <v>199</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,69 +2875,72 @@
         <v>45124</v>
       </c>
       <c r="B95" s="2">
-        <v>-23.06</v>
+        <v>-99.93</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
+      <c r="D95">
+        <v>5955</v>
+      </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B96" s="2">
-        <v>-520.36</v>
+        <v>-23.06</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B97" s="2">
-        <v>-575</v>
+        <v>-520.36</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B98" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-575</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B99" s="2">
-        <v>-3330</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,27 +2948,27 @@
         <v>45117</v>
       </c>
       <c r="B100" s="2">
-        <v>-1000</v>
+        <v>-3330</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45113</v>
+        <v>45117</v>
       </c>
       <c r="B101" s="2">
-        <v>-1616.4</v>
+        <v>-1000</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,13 +2976,13 @@
         <v>45113</v>
       </c>
       <c r="B102" s="2">
-        <v>-1411.2</v>
+        <v>-1616.4</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,41 +2990,41 @@
         <v>45113</v>
       </c>
       <c r="B103" s="2">
-        <v>-1000</v>
+        <v>-1411.2</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B104" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B105" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,66 +3038,66 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="B107" s="2">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
-      <c r="D107">
-        <v>5964</v>
-      </c>
       <c r="E107" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B108" s="2">
-        <v>-3201.71</v>
+        <v>-800</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
+      <c r="D108">
+        <v>5964</v>
+      </c>
       <c r="E108" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B109" s="2">
-        <v>-369.17</v>
+        <v>-3201.71</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B110" s="2">
-        <v>-3100.21</v>
+        <v>-369.17</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,13 +3105,13 @@
         <v>45098</v>
       </c>
       <c r="B111" s="2">
-        <v>-207.51</v>
+        <v>-3100.21</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,27 +3119,27 @@
         <v>45098</v>
       </c>
       <c r="B112" s="2">
-        <v>23128.560000000001</v>
+        <v>-207.51</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B113" s="2">
-        <v>-79.989999999999995</v>
+        <v>23128.560000000001</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,13 +3147,13 @@
         <v>45097</v>
       </c>
       <c r="B114" s="2">
-        <v>-595</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,27 +3161,27 @@
         <v>45097</v>
       </c>
       <c r="B115" s="2">
-        <v>-23.06</v>
+        <v>-595</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="B116" s="2">
-        <v>-417.39</v>
+        <v>-23.06</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3184,27 +3189,27 @@
         <v>45090</v>
       </c>
       <c r="B117" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-417.39</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B118" s="2">
-        <v>-95</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,30 +3217,27 @@
         <v>45089</v>
       </c>
       <c r="B119" s="2">
-        <v>-1000</v>
+        <v>-95</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="B120" s="2">
-        <v>-1113.5</v>
+        <v>-1000</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
       </c>
-      <c r="D120">
-        <v>5963</v>
-      </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3243,27 +3245,30 @@
         <v>45083</v>
       </c>
       <c r="B121" s="2">
-        <v>-1000</v>
+        <v>-1113.5</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
       </c>
+      <c r="D121">
+        <v>5963</v>
+      </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B122" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,18 +3276,18 @@
         <v>45082</v>
       </c>
       <c r="B123" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="B124" s="2">
         <v>-100</v>
@@ -3290,11 +3295,8 @@
       <c r="C124" t="s">
         <v>0</v>
       </c>
-      <c r="D124">
-        <v>5954</v>
-      </c>
       <c r="E124" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3307,50 +3309,53 @@
       <c r="C125" t="s">
         <v>0</v>
       </c>
+      <c r="D125">
+        <v>5954</v>
+      </c>
       <c r="E125" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45076</v>
+        <v>45079</v>
       </c>
       <c r="B126" s="2">
-        <v>-333.95</v>
+        <v>-100</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="B127" s="2">
-        <v>-2.12</v>
+        <v>-333.95</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="B128" s="2">
-        <v>-388.75</v>
+        <v>-2.12</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3358,41 +3363,41 @@
         <v>45065</v>
       </c>
       <c r="B129" s="2">
-        <v>22027.200000000001</v>
+        <v>-388.75</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B130" s="2">
-        <v>-79.989999999999995</v>
+        <v>22027.200000000001</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B131" s="2">
-        <v>-124.12</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,69 +3405,69 @@
         <v>45063</v>
       </c>
       <c r="B132" s="2">
-        <v>-23.06</v>
+        <v>-124.12</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B133" s="2">
-        <v>-451.55</v>
+        <v>-23.06</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B134" s="2">
-        <v>-575</v>
+        <v>-451.55</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B135" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-575</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B136" s="2">
-        <v>-3330</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,18 +3475,18 @@
         <v>45056</v>
       </c>
       <c r="B137" s="2">
-        <v>-1000</v>
+        <v>-3330</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B138" s="2">
         <v>-1000</v>
@@ -3490,49 +3495,49 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45051</v>
+        <v>45054</v>
       </c>
       <c r="B139" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45049</v>
+        <v>45051</v>
       </c>
       <c r="B140" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B141" s="2">
-        <v>-564.6</v>
+        <v>-100</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,86 +3545,86 @@
         <v>45048</v>
       </c>
       <c r="B142" s="2">
-        <v>-100</v>
+        <v>-564.6</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B143" s="2">
-        <v>-1759.45</v>
+        <v>-100</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B144" s="2">
-        <v>-2207.92</v>
+        <v>-1759.45</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B145" s="2">
-        <v>-106.9</v>
+        <v>-2207.92</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
       </c>
-      <c r="D145">
-        <v>5952</v>
-      </c>
       <c r="E145" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="B146" s="2">
-        <v>-10.4</v>
+        <v>-106.9</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
       </c>
+      <c r="D146">
+        <v>5952</v>
+      </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B147" s="2">
-        <v>-299.42</v>
+        <v>-10.4</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3627,137 +3632,137 @@
         <v>45040</v>
       </c>
       <c r="B148" s="2">
-        <v>-4000</v>
+        <v>-299.42</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
       </c>
-      <c r="D148">
-        <v>5962</v>
-      </c>
       <c r="E148" t="s">
-        <v>201</v>
-      </c>
-      <c r="F148" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45036</v>
+        <v>45040</v>
       </c>
       <c r="B149" s="2">
-        <v>-11500</v>
+        <v>-4000</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>5953</v>
+        <v>5962</v>
       </c>
       <c r="E149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B150" s="2">
-        <v>25331.279999999999</v>
+        <v>-11500</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
       </c>
+      <c r="D150">
+        <v>5953</v>
+      </c>
       <c r="E150" t="s">
-        <v>130</v>
+        <v>202</v>
+      </c>
+      <c r="F150" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B151" s="2">
-        <v>-79.989999999999995</v>
+        <v>25331.279999999999</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B152" s="2">
-        <v>-23.06</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="B153" s="2">
-        <v>-375.76</v>
+        <v>-23.06</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B154" s="2">
-        <v>-575</v>
+        <v>-375.76</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B155" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-575</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B156" s="2">
-        <v>-3330</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,18 +3770,18 @@
         <v>45026</v>
       </c>
       <c r="B157" s="2">
-        <v>-1000</v>
+        <v>-3330</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="B158" s="2">
         <v>-1000</v>
@@ -3785,35 +3790,35 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B159" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B160" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,80 +3832,80 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B162" s="2">
-        <v>-1808</v>
+        <v>-100</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B163" s="2">
-        <v>-1603.9</v>
+        <v>-1808</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="B164" s="2">
-        <v>-14.12</v>
+        <v>-1603.9</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B165" s="2">
-        <v>-18</v>
+        <v>-14.12</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
       </c>
-      <c r="D165">
-        <v>5951</v>
-      </c>
       <c r="E165" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B166" s="2">
-        <v>-79.989999999999995</v>
+        <v>-18</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
       </c>
+      <c r="D166">
+        <v>5951</v>
+      </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,16 +3913,13 @@
         <v>45005</v>
       </c>
       <c r="B167" s="2">
-        <v>-79</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>5950</v>
-      </c>
       <c r="E167" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,55 +3927,58 @@
         <v>45005</v>
       </c>
       <c r="B168" s="2">
-        <v>20925.84</v>
+        <v>-79</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
       </c>
+      <c r="D168">
+        <v>5950</v>
+      </c>
       <c r="E168" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B169" s="2">
-        <v>-23.06</v>
+        <v>20925.84</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B170" s="2">
-        <v>-575</v>
+        <v>-23.06</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="B171" s="2">
-        <v>-3330</v>
+        <v>-575</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3981,30 +3986,30 @@
         <v>44999</v>
       </c>
       <c r="B172" s="2">
-        <v>-600</v>
+        <v>-3330</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
       </c>
-      <c r="D172">
-        <v>5949</v>
-      </c>
       <c r="E172" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B173" s="2">
-        <v>-690.55</v>
+        <v>-600</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
       </c>
+      <c r="D173">
+        <v>5949</v>
+      </c>
       <c r="E173" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,32 +4017,32 @@
         <v>44998</v>
       </c>
       <c r="B174" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-690.55</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B175" s="2">
-        <v>-1000</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44991</v>
+        <v>44995</v>
       </c>
       <c r="B176" s="2">
         <v>-1000</v>
@@ -4046,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,32 +4059,32 @@
         <v>44991</v>
       </c>
       <c r="B177" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B178" s="2">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B179" s="2">
         <v>-100</v>
@@ -4088,49 +4093,49 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B180" s="2">
-        <v>-39</v>
+        <v>-100</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B181" s="2">
-        <v>-1369.48</v>
+        <v>-39</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44979</v>
+        <v>44985</v>
       </c>
       <c r="B182" s="2">
-        <v>-50.64</v>
+        <v>-1369.48</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,16 +4143,13 @@
         <v>44979</v>
       </c>
       <c r="B183" s="2">
-        <v>-30000</v>
+        <v>-50.64</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
       </c>
-      <c r="D183">
-        <v>5750</v>
-      </c>
       <c r="E183" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4161,24 +4163,27 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="E184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B185" s="2">
-        <v>-79.989999999999995</v>
+        <v>-30000</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
       </c>
+      <c r="D185">
+        <v>5749</v>
+      </c>
       <c r="E185" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,13 +4191,13 @@
         <v>44978</v>
       </c>
       <c r="B186" s="2">
-        <v>-100</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,41 +4205,41 @@
         <v>44978</v>
       </c>
       <c r="B187" s="2">
-        <v>22027.200000000001</v>
+        <v>-100</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="B188" s="2">
-        <v>-23.06</v>
+        <v>22027.200000000001</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="B189" s="2">
-        <v>-559.96</v>
+        <v>-23.06</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,27 +4247,27 @@
         <v>44970</v>
       </c>
       <c r="B190" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-559.96</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B191" s="2">
-        <v>-575</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,27 +4275,27 @@
         <v>44967</v>
       </c>
       <c r="B192" s="2">
-        <v>-1000</v>
+        <v>-575</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="B193" s="2">
-        <v>-3330</v>
+        <v>-1000</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,27 +4303,27 @@
         <v>44965</v>
       </c>
       <c r="B194" s="2">
-        <v>-42</v>
+        <v>-3330</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44963</v>
+        <v>44965</v>
       </c>
       <c r="B195" s="2">
-        <v>-3060</v>
+        <v>-42</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4326,13 +4331,13 @@
         <v>44963</v>
       </c>
       <c r="B196" s="2">
-        <v>-1000</v>
+        <v>-3060</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4340,27 +4345,27 @@
         <v>44963</v>
       </c>
       <c r="B197" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B198" s="2">
-        <v>-610.35</v>
+        <v>-500</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4368,41 +4373,41 @@
         <v>44959</v>
       </c>
       <c r="B199" s="2">
-        <v>-100</v>
+        <v>-610.35</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B200" s="2">
-        <v>-3330</v>
+        <v>-100</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B201" s="2">
-        <v>-339.1</v>
+        <v>-3330</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,13 +4415,13 @@
         <v>44956</v>
       </c>
       <c r="B202" s="2">
-        <v>-4860</v>
+        <v>-339.1</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4424,92 +4429,89 @@
         <v>44956</v>
       </c>
       <c r="B203" s="2">
-        <v>6759.1</v>
+        <v>-4860</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="B204" s="2">
-        <v>-420</v>
+        <v>6759.1</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
       </c>
-      <c r="D204">
-        <v>5745</v>
-      </c>
       <c r="E204" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="B205" s="2">
-        <v>-27.16</v>
+        <v>-420</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
       </c>
+      <c r="D205">
+        <v>5745</v>
+      </c>
       <c r="E205" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44946</v>
+        <v>44949</v>
       </c>
       <c r="B206" s="2">
-        <v>-1729.5</v>
+        <v>-27.16</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
       </c>
-      <c r="D206">
-        <v>5744</v>
-      </c>
       <c r="E206" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B207" s="2">
-        <v>16520.400000000001</v>
+        <v>-1729.5</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
       </c>
+      <c r="D207">
+        <v>5744</v>
+      </c>
       <c r="E207" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B208" s="2">
-        <v>-600</v>
+        <v>16520.400000000001</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="D208">
-        <v>5747</v>
-      </c>
       <c r="E208" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,16 +4519,16 @@
         <v>44944</v>
       </c>
       <c r="B209" s="2">
-        <v>-250</v>
+        <v>-600</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="E209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4534,27 +4536,30 @@
         <v>44944</v>
       </c>
       <c r="B210" s="2">
-        <v>-79.989999999999995</v>
+        <v>-250</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
       </c>
+      <c r="D210">
+        <v>5746</v>
+      </c>
       <c r="E210" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B211" s="2">
-        <v>-1528.76</v>
+        <v>-79.989999999999995</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,46 +4567,46 @@
         <v>44943</v>
       </c>
       <c r="B212" s="2">
-        <v>-23.06</v>
+        <v>-1528.76</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B213" s="2">
-        <v>-1086.58</v>
+        <v>-23.06</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44936</v>
+        <v>44939</v>
       </c>
       <c r="B214" s="2">
-        <v>-1000</v>
+        <v>-1086.58</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B215" s="2">
         <v>-1000</v>
@@ -4610,48 +4615,62 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B216" s="2">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B217" s="2">
-        <v>-5.0999999999999996</v>
+        <v>-500</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>44929</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B219" s="2">
         <v>-100</v>
       </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
         <v>184</v>
       </c>
     </row>
